--- a/Research/Population Data/Population Deomographics.xlsx
+++ b/Research/Population Data/Population Deomographics.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\YAASSS UBER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\YAASSS UBER\Research\Population Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805"/>
   </bookViews>
   <sheets>
     <sheet name="% of pop" sheetId="1" r:id="rId1"/>
@@ -903,12 +903,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I285"/>
+  <dimension ref="A1:H285"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9:I54"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,7 +917,7 @@
     <col min="8" max="8" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>57</v>
       </c>
@@ -944,7 +943,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -970,7 +969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -996,7 +995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1022,7 +1021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1048,7 +1047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
@@ -1074,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1100,7 +1099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>55</v>
       </c>
@@ -1151,12 +1150,8 @@
       <c r="H9" s="17">
         <v>1</v>
       </c>
-      <c r="I9">
-        <f>(E237-E9)/E237</f>
-        <v>1.4778325123152743E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1182,7 +1177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1207,12 +1202,8 @@
       <c r="H11" s="17">
         <v>1</v>
       </c>
-      <c r="I11">
-        <f>(E239-E11)/E239</f>
-        <v>0.61068702290076338</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -1238,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -1264,7 +1255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1290,7 +1281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
@@ -1316,7 +1307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1341,12 +1332,8 @@
       <c r="H16" s="17">
         <v>1</v>
       </c>
-      <c r="I16">
-        <f>(E244-E16)/E244</f>
-        <v>0.26799999999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -1372,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -1398,7 +1385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1424,7 +1411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -1450,7 +1437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -1476,7 +1463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -1502,7 +1489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -1527,12 +1514,8 @@
       <c r="H23" s="17">
         <v>1</v>
       </c>
-      <c r="I23">
-        <f t="shared" ref="I23:I24" si="0">(E251-E23)/E251</f>
-        <v>0.44705882352941179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -1557,12 +1540,8 @@
       <c r="H24" s="17">
         <v>1</v>
       </c>
-      <c r="I24">
-        <f t="shared" si="0"/>
-        <v>0.67415730337078661</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
@@ -1588,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -1614,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
@@ -1640,7 +1619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
@@ -1666,7 +1645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,12 +1670,8 @@
       <c r="H29" s="17">
         <v>1</v>
       </c>
-      <c r="I29">
-        <f t="shared" ref="I28:I29" si="1">(E257-E29)/E257</f>
-        <v>0.32067510548523209</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
@@ -1722,7 +1697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
@@ -1748,7 +1723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>23</v>
       </c>
@@ -1774,7 +1749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>24</v>
       </c>
@@ -1800,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>25</v>
       </c>
@@ -1826,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>26</v>
       </c>
@@ -1852,7 +1827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>27</v>
       </c>
@@ -1877,12 +1852,8 @@
       <c r="H36" s="17">
         <v>1</v>
       </c>
-      <c r="I36">
-        <f>(E264-E36)/E264</f>
-        <v>0.47450980392156861</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
@@ -1908,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>29</v>
       </c>
@@ -1933,12 +1904,8 @@
       <c r="H38" s="17">
         <v>1</v>
       </c>
-      <c r="I38">
-        <f>(E266-E38)/E266</f>
-        <v>0.78909090909090907</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -1964,7 +1931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>30</v>
       </c>
@@ -1989,12 +1956,8 @@
       <c r="H40" s="17">
         <v>1</v>
       </c>
-      <c r="I40">
-        <f>(E268-E40)/E268</f>
-        <v>0.59259259259259256</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>31</v>
       </c>
@@ -2020,7 +1983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>32</v>
       </c>
@@ -2046,7 +2009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>33</v>
       </c>
@@ -2071,12 +2034,8 @@
       <c r="H43" s="17">
         <v>1</v>
       </c>
-      <c r="I43">
-        <f t="shared" ref="I43:I44" si="2">(E271-E43)/E271</f>
-        <v>0.62057877813504825</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>38</v>
       </c>
@@ -2101,12 +2060,8 @@
       <c r="H44" s="17">
         <v>1</v>
       </c>
-      <c r="I44">
-        <f t="shared" si="2"/>
-        <v>0.6643109540636043</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>39</v>
       </c>
@@ -2132,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>40</v>
       </c>
@@ -2158,7 +2113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>36</v>
       </c>
@@ -2183,12 +2138,8 @@
       <c r="H47" s="17">
         <v>1</v>
       </c>
-      <c r="I47">
-        <f>(E275-E47)/E275</f>
-        <v>0.70783132530120485</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2214,7 +2165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2240,7 +2191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2266,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>46</v>
       </c>
@@ -2292,7 +2243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>47</v>
       </c>
@@ -2318,7 +2269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>50</v>
       </c>
@@ -2344,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>51</v>
       </c>
@@ -2369,12 +2320,8 @@
       <c r="H54" s="17">
         <v>1</v>
       </c>
-      <c r="I54">
-        <f>(E282-E54)/E282</f>
-        <v>0.67153284671532842</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>52</v>
       </c>
@@ -2400,7 +2347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>53</v>
       </c>
@@ -2426,7 +2373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
@@ -2452,12 +2399,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="F58" s="15"/>
     </row>
-    <row r="59" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>48</v>
       </c>
@@ -2483,7 +2430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
@@ -2509,7 +2456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>1</v>
       </c>
@@ -2535,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>2</v>
       </c>
@@ -2561,7 +2508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>49</v>
       </c>
@@ -2587,7 +2534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>3</v>
       </c>
@@ -2613,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>7</v>
       </c>
@@ -2639,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>55</v>
       </c>
@@ -2665,7 +2612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>13</v>
       </c>
@@ -2691,7 +2638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>4</v>
       </c>
@@ -2717,7 +2664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>5</v>
       </c>
@@ -2743,7 +2690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>6</v>
       </c>
@@ -2769,7 +2716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>22</v>
       </c>
@@ -2795,7 +2742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>45</v>
       </c>
@@ -2821,7 +2768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
@@ -2847,7 +2794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>9</v>
       </c>
@@ -2873,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>10</v>
       </c>
@@ -2899,7 +2846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>11</v>
       </c>
@@ -2925,7 +2872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>12</v>
       </c>
@@ -2951,7 +2898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>14</v>
       </c>
@@ -2977,7 +2924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>15</v>
       </c>
@@ -3003,7 +2950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>35</v>
       </c>
@@ -3029,7 +2976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>16</v>
       </c>
@@ -3055,7 +3002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>44</v>
       </c>
@@ -3081,7 +3028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>34</v>
       </c>
@@ -3107,7 +3054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>17</v>
       </c>
@@ -3133,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>18</v>
       </c>
@@ -3159,7 +3106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>19</v>
       </c>
@@ -3185,7 +3132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>20</v>
       </c>
@@ -3211,7 +3158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>21</v>
       </c>
@@ -3237,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>23</v>
       </c>
@@ -3263,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>24</v>
       </c>
@@ -3289,7 +3236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>25</v>
       </c>
@@ -3315,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>26</v>
       </c>
@@ -3341,7 +3288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>27</v>
       </c>
@@ -3367,7 +3314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>28</v>
       </c>
@@ -3393,7 +3340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>29</v>
       </c>
@@ -3419,7 +3366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>37</v>
       </c>
@@ -3445,7 +3392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>30</v>
       </c>
@@ -3471,7 +3418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>31</v>
       </c>
@@ -3497,7 +3444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>32</v>
       </c>
@@ -3523,7 +3470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>33</v>
       </c>
@@ -3549,7 +3496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>38</v>
       </c>
@@ -3575,7 +3522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>39</v>
       </c>
@@ -3601,7 +3548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>40</v>
       </c>
@@ -3627,7 +3574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>36</v>
       </c>
@@ -3653,7 +3600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>41</v>
       </c>
@@ -3679,7 +3626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>42</v>
       </c>
@@ -3705,7 +3652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>43</v>
       </c>
@@ -3731,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>46</v>
       </c>
@@ -3757,7 +3704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>47</v>
       </c>
@@ -3783,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>50</v>
       </c>
@@ -3809,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>51</v>
       </c>
@@ -3835,7 +3782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>52</v>
       </c>
@@ -3861,7 +3808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>53</v>
       </c>
@@ -3887,7 +3834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>54</v>
       </c>
@@ -3913,12 +3860,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="F115" s="15"/>
     </row>
-    <row r="116" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>48</v>
       </c>
@@ -3944,7 +3891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>0</v>
       </c>
@@ -3970,7 +3917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>1</v>
       </c>
@@ -3996,7 +3943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>2</v>
       </c>
@@ -4022,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>49</v>
       </c>
@@ -4048,7 +3995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>3</v>
       </c>
@@ -4074,7 +4021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>7</v>
       </c>
@@ -4100,7 +4047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>55</v>
       </c>
@@ -4126,7 +4073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>13</v>
       </c>
@@ -4152,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>4</v>
       </c>
@@ -4178,7 +4125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>5</v>
       </c>
@@ -4204,7 +4151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>6</v>
       </c>
@@ -4230,7 +4177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>22</v>
       </c>
@@ -4256,7 +4203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>45</v>
       </c>
@@ -4282,7 +4229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>8</v>
       </c>
@@ -4308,7 +4255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>9</v>
       </c>
@@ -4334,7 +4281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>10</v>
       </c>
@@ -4360,7 +4307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>11</v>
       </c>
@@ -4386,7 +4333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>12</v>
       </c>
@@ -4412,7 +4359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>14</v>
       </c>
@@ -4438,7 +4385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>15</v>
       </c>
@@ -4464,7 +4411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>35</v>
       </c>
@@ -4490,7 +4437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>16</v>
       </c>
@@ -4516,7 +4463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>44</v>
       </c>
@@ -4542,7 +4489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>34</v>
       </c>
@@ -4568,7 +4515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>17</v>
       </c>
@@ -4594,7 +4541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>18</v>
       </c>
@@ -4620,7 +4567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>19</v>
       </c>
@@ -4646,7 +4593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>20</v>
       </c>
@@ -4672,7 +4619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>21</v>
       </c>
@@ -4698,7 +4645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>23</v>
       </c>
@@ -4724,7 +4671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>24</v>
       </c>
@@ -4750,7 +4697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>25</v>
       </c>
@@ -4776,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>26</v>
       </c>
@@ -4802,7 +4749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>27</v>
       </c>
@@ -4828,7 +4775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>28</v>
       </c>
@@ -4854,7 +4801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>29</v>
       </c>
@@ -4880,7 +4827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>37</v>
       </c>
@@ -4906,7 +4853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>30</v>
       </c>
@@ -4932,7 +4879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>31</v>
       </c>
@@ -4958,7 +4905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>32</v>
       </c>
@@ -4984,7 +4931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>33</v>
       </c>
@@ -5010,7 +4957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>38</v>
       </c>
@@ -5036,7 +4983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>39</v>
       </c>
@@ -5062,7 +5009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>40</v>
       </c>
@@ -5088,7 +5035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>36</v>
       </c>
@@ -5114,7 +5061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>41</v>
       </c>
@@ -5140,7 +5087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>42</v>
       </c>
@@ -5166,7 +5113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>43</v>
       </c>
@@ -5192,7 +5139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>46</v>
       </c>
@@ -5218,7 +5165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>47</v>
       </c>
@@ -5244,7 +5191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>50</v>
       </c>
@@ -5270,7 +5217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>51</v>
       </c>
@@ -5296,7 +5243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>52</v>
       </c>
@@ -5322,7 +5269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>53</v>
       </c>
@@ -5348,7 +5295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>54</v>
       </c>
@@ -5374,12 +5321,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="F172" s="15"/>
     </row>
-    <row r="173" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>48</v>
       </c>
@@ -5405,7 +5352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>0</v>
       </c>
@@ -5431,7 +5378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>1</v>
       </c>
@@ -5457,7 +5404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>2</v>
       </c>
@@ -5483,7 +5430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>49</v>
       </c>
@@ -5509,7 +5456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>3</v>
       </c>
@@ -5535,7 +5482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>7</v>
       </c>
@@ -5561,7 +5508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>55</v>
       </c>
@@ -5587,7 +5534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>13</v>
       </c>
@@ -5613,7 +5560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>4</v>
       </c>
@@ -5639,7 +5586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>5</v>
       </c>
@@ -5665,7 +5612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>6</v>
       </c>
@@ -5691,7 +5638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>22</v>
       </c>
@@ -5717,7 +5664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>45</v>
       </c>
@@ -5743,7 +5690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>8</v>
       </c>
@@ -5769,7 +5716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>9</v>
       </c>
@@ -5795,7 +5742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>10</v>
       </c>
@@ -5821,7 +5768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>11</v>
       </c>
@@ -5847,7 +5794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>12</v>
       </c>
@@ -5873,7 +5820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>14</v>
       </c>
@@ -5899,7 +5846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>15</v>
       </c>
@@ -5925,7 +5872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>35</v>
       </c>
@@ -5951,7 +5898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>16</v>
       </c>
@@ -5977,7 +5924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>44</v>
       </c>
@@ -6003,7 +5950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>34</v>
       </c>
@@ -6029,7 +5976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>17</v>
       </c>
@@ -6055,7 +6002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>18</v>
       </c>
@@ -6081,7 +6028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>19</v>
       </c>
@@ -6107,7 +6054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>20</v>
       </c>
@@ -6133,7 +6080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>21</v>
       </c>
@@ -6159,7 +6106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>23</v>
       </c>
@@ -6185,7 +6132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>24</v>
       </c>
@@ -6211,7 +6158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>25</v>
       </c>
@@ -6237,7 +6184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>26</v>
       </c>
@@ -6263,7 +6210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>27</v>
       </c>
@@ -6289,7 +6236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>28</v>
       </c>
@@ -6315,7 +6262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>29</v>
       </c>
@@ -6341,7 +6288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>37</v>
       </c>
@@ -6367,7 +6314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>30</v>
       </c>
@@ -6393,7 +6340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>31</v>
       </c>
@@ -6419,7 +6366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>32</v>
       </c>
@@ -6445,7 +6392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>33</v>
       </c>
@@ -6471,7 +6418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>38</v>
       </c>
@@ -6497,7 +6444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>39</v>
       </c>
@@ -6523,7 +6470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>40</v>
       </c>
@@ -6549,7 +6496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>36</v>
       </c>
@@ -6575,7 +6522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>41</v>
       </c>
@@ -6601,7 +6548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>42</v>
       </c>
@@ -6627,7 +6574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>43</v>
       </c>
@@ -6653,7 +6600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>46</v>
       </c>
@@ -6679,7 +6626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>47</v>
       </c>
@@ -6705,7 +6652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>50</v>
       </c>
@@ -6731,7 +6678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>51</v>
       </c>
@@ -6757,7 +6704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>52</v>
       </c>
@@ -6783,7 +6730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>53</v>
       </c>
@@ -6809,7 +6756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>54</v>
       </c>
@@ -6835,12 +6782,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="F229" s="15"/>
     </row>
-    <row r="230" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>48</v>
       </c>
@@ -6866,7 +6813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>0</v>
       </c>
@@ -6892,7 +6839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>1</v>
       </c>
@@ -6918,7 +6865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>2</v>
       </c>
@@ -6944,7 +6891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>49</v>
       </c>
@@ -6970,7 +6917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>3</v>
       </c>
@@ -6996,7 +6943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>7</v>
       </c>
@@ -7048,7 +6995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>13</v>
       </c>
@@ -7100,7 +7047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>5</v>
       </c>
@@ -7126,7 +7073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>6</v>
       </c>
@@ -7152,7 +7099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>22</v>
       </c>
@@ -7178,7 +7125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>45</v>
       </c>
@@ -7230,7 +7177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>9</v>
       </c>
@@ -7256,7 +7203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>10</v>
       </c>
@@ -7282,7 +7229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>11</v>
       </c>
@@ -7308,7 +7255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>12</v>
       </c>
@@ -7334,7 +7281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>14</v>
       </c>
@@ -7360,7 +7307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>15</v>
       </c>
@@ -7438,7 +7385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>44</v>
       </c>
@@ -7464,7 +7411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>34</v>
       </c>
@@ -7490,7 +7437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>17</v>
       </c>
@@ -7568,7 +7515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>20</v>
       </c>
@@ -7594,7 +7541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>21</v>
       </c>
@@ -7620,7 +7567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>23</v>
       </c>
@@ -7646,7 +7593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>24</v>
       </c>
@@ -7672,7 +7619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>25</v>
       </c>
@@ -7698,7 +7645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>26</v>
       </c>
@@ -7750,7 +7697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>28</v>
       </c>
@@ -7802,7 +7749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>37</v>
       </c>
@@ -7854,7 +7801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>31</v>
       </c>
@@ -7880,7 +7827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>32</v>
       </c>
@@ -7958,7 +7905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>39</v>
       </c>
@@ -7984,7 +7931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>40</v>
       </c>
@@ -8036,7 +7983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>41</v>
       </c>
@@ -8062,7 +8009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>42</v>
       </c>
@@ -8088,7 +8035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>43</v>
       </c>
@@ -8114,7 +8061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>46</v>
       </c>
@@ -8140,7 +8087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>47</v>
       </c>
@@ -8166,7 +8113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>50</v>
       </c>
@@ -8218,7 +8165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>52</v>
       </c>
@@ -8244,7 +8191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>53</v>
       </c>
@@ -8270,7 +8217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>54</v>
       </c>
@@ -8297,29 +8244,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H285">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="East"/>
-        <filter val="east midlands"/>
-        <filter val="North West"/>
-        <filter val="South East"/>
-        <filter val="West Midlands"/>
-        <filter val="Yorkshire"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="18-24"/>
-        <filter val="55+"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H285"/>
   <sortState ref="A2:H281">
     <sortCondition ref="D2:D281"/>
     <sortCondition ref="A2:A281"/>
@@ -8333,7 +8258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
